--- a/5.0.0/StructureDefinition-cdm-claim.xlsx
+++ b/5.0.0/StructureDefinition-cdm-claim.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6666" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6700" uniqueCount="861">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1855,6 +1855,16 @@
   </si>
   <si>
     <t>Indicates whether the claim is a crossover claim where a portion is paid by Medicare</t>
+  </si>
+  <si>
+    <t>lineOfBusiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/line-of-business}
+</t>
+  </si>
+  <si>
+    <t>Code for the line of business</t>
   </si>
   <si>
     <t>priorAuthorizationIndicator</t>
@@ -2972,7 +2982,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL194"/>
+  <dimension ref="A1:AL195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -15135,43 +15145,41 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B113" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>361</v>
+        <v>75</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>129</v>
+        <v>596</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>362</v>
+        <v>597</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>75</v>
       </c>
@@ -15219,7 +15227,7 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>364</v>
+        <v>170</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>73</v>
@@ -15228,7 +15236,7 @@
         <v>74</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>135</v>
@@ -15245,40 +15253,42 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>433</v>
+        <v>129</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>597</v>
+        <v>362</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="N114" t="s" s="2">
-        <v>599</v>
+        <v>210</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>75</v>
@@ -15327,19 +15337,19 @@
         <v>75</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>596</v>
+        <v>364</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>75</v>
@@ -15348,12 +15358,12 @@
         <v>75</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15376,19 +15386,17 @@
         <v>84</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" s="2"/>
+      <c r="N115" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>75</v>
@@ -15437,7 +15445,7 @@
         <v>75</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>83</v>
@@ -15463,7 +15471,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15471,7 +15479,7 @@
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>83</v>
@@ -15483,22 +15491,22 @@
         <v>75</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>214</v>
+        <v>444</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>75</v>
@@ -15547,10 +15555,10 @@
         <v>75</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>83</v>
@@ -15562,10 +15570,10 @@
         <v>96</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>75</v>
@@ -15573,7 +15581,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15581,7 +15589,7 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>83</v>
@@ -15593,20 +15601,22 @@
         <v>75</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J117" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="K117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>75</v>
@@ -15655,10 +15665,10 @@
         <v>75</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>83</v>
@@ -15670,10 +15680,10 @@
         <v>96</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>75</v>
@@ -15681,7 +15691,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15689,7 +15699,7 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>83</v>
@@ -15701,20 +15711,20 @@
         <v>75</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>85</v>
+        <v>614</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>75</v>
@@ -15763,10 +15773,10 @@
         <v>75</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>83</v>
@@ -15789,7 +15799,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15800,7 +15810,7 @@
         <v>73</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>75</v>
@@ -15815,16 +15825,14 @@
         <v>85</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" s="2"/>
+      <c r="N119" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>75</v>
@@ -15873,13 +15881,13 @@
         <v>75</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>75</v>
@@ -15899,7 +15907,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15910,7 +15918,7 @@
         <v>73</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>75</v>
@@ -15922,19 +15930,19 @@
         <v>75</v>
       </c>
       <c r="J120" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="K120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>75</v>
@@ -15983,13 +15991,13 @@
         <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>75</v>
@@ -16009,7 +16017,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16032,17 +16040,19 @@
         <v>75</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>353</v>
+        <v>628</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="M121" s="2"/>
-      <c r="N121" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>75</v>
@@ -16091,7 +16101,7 @@
         <v>75</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>73</v>
@@ -16117,7 +16127,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16140,16 +16150,18 @@
         <v>75</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>164</v>
+        <v>634</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>165</v>
+        <v>635</v>
       </c>
       <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
+      <c r="N122" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>75</v>
       </c>
@@ -16197,7 +16209,7 @@
         <v>75</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>166</v>
+        <v>633</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>73</v>
@@ -16209,7 +16221,7 @@
         <v>75</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>75</v>
@@ -16218,23 +16230,23 @@
         <v>75</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>75</v>
@@ -16246,17 +16258,15 @@
         <v>75</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>75</v>
@@ -16305,19 +16315,19 @@
         <v>75</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>75</v>
@@ -16331,11 +16341,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>361</v>
+        <v>206</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16348,26 +16358,24 @@
         <v>75</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J124" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>362</v>
+        <v>222</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>363</v>
+        <v>223</v>
       </c>
       <c r="M124" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="N124" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>75</v>
       </c>
@@ -16415,7 +16423,7 @@
         <v>75</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>364</v>
+        <v>170</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>73</v>
@@ -16436,47 +16444,47 @@
         <v>75</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>638</v>
+        <v>129</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>639</v>
+        <v>362</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>640</v>
+        <v>363</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>641</v>
+        <v>209</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>642</v>
+        <v>210</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>75</v>
@@ -16525,19 +16533,19 @@
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>637</v>
+        <v>364</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>75</v>
@@ -16546,12 +16554,12 @@
         <v>75</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16559,7 +16567,7 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>83</v>
@@ -16574,17 +16582,19 @@
         <v>75</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>178</v>
+        <v>641</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>75</v>
@@ -16609,13 +16619,13 @@
         <v>75</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>647</v>
+        <v>75</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>648</v>
+        <v>75</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>75</v>
@@ -16633,10 +16643,10 @@
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>83</v>
@@ -16659,7 +16669,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16682,17 +16692,17 @@
         <v>75</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>650</v>
+        <v>178</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>75</v>
@@ -16717,13 +16727,13 @@
         <v>75</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>75</v>
+        <v>650</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>75</v>
+        <v>651</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>75</v>
@@ -16741,7 +16751,7 @@
         <v>75</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>73</v>
@@ -16767,7 +16777,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16778,7 +16788,7 @@
         <v>73</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>75</v>
@@ -16790,17 +16800,17 @@
         <v>75</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>353</v>
+        <v>653</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>75</v>
@@ -16849,13 +16859,13 @@
         <v>75</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>75</v>
@@ -16875,7 +16885,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16886,7 +16896,7 @@
         <v>73</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>75</v>
@@ -16898,16 +16908,18 @@
         <v>75</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>164</v>
+        <v>658</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>165</v>
+        <v>659</v>
       </c>
       <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
+      <c r="N129" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>75</v>
       </c>
@@ -16955,19 +16967,19 @@
         <v>75</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>166</v>
+        <v>657</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>75</v>
@@ -16976,12 +16988,12 @@
         <v>75</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16992,7 +17004,7 @@
         <v>73</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>75</v>
@@ -17004,13 +17016,13 @@
         <v>75</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -17049,29 +17061,31 @@
         <v>75</v>
       </c>
       <c r="AA130" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AB130" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD130" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>75</v>
@@ -17080,16 +17094,14 @@
         <v>75</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>660</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
         <v>75</v>
       </c>
@@ -17098,7 +17110,7 @@
         <v>73</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>75</v>
@@ -17110,13 +17122,13 @@
         <v>75</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>661</v>
+        <v>129</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>662</v>
+        <v>130</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>662</v>
+        <v>131</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -17155,16 +17167,14 @@
         <v>75</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AB131" s="2"/>
       <c r="AC131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AE131" t="s" s="2">
         <v>170</v>
@@ -17176,7 +17186,7 @@
         <v>74</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>135</v>
@@ -17188,12 +17198,12 @@
         <v>75</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>663</v>
@@ -17301,7 +17311,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>666</v>
@@ -17409,7 +17419,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>669</v>
@@ -17517,43 +17527,41 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B135" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>361</v>
+        <v>75</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>129</v>
+        <v>673</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>362</v>
+        <v>674</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>75</v>
       </c>
@@ -17601,7 +17609,7 @@
         <v>75</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>364</v>
+        <v>170</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>73</v>
@@ -17610,7 +17618,7 @@
         <v>74</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>135</v>
@@ -17627,40 +17635,42 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>433</v>
+        <v>129</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>674</v>
+        <v>362</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="M136" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="N136" t="s" s="2">
-        <v>676</v>
+        <v>210</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>75</v>
@@ -17709,19 +17719,19 @@
         <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>673</v>
+        <v>364</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>75</v>
@@ -17730,12 +17740,12 @@
         <v>75</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17743,10 +17753,10 @@
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>75</v>
@@ -17761,14 +17771,14 @@
         <v>433</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>75</v>
@@ -17817,13 +17827,13 @@
         <v>75</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>75</v>
@@ -17843,7 +17853,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17869,14 +17879,14 @@
         <v>433</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>75</v>
@@ -17925,7 +17935,7 @@
         <v>75</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>73</v>
@@ -17951,7 +17961,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17977,14 +17987,14 @@
         <v>433</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>75</v>
@@ -18033,7 +18043,7 @@
         <v>75</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>73</v>
@@ -18059,7 +18069,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18085,14 +18095,14 @@
         <v>433</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>75</v>
@@ -18141,7 +18151,7 @@
         <v>75</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>73</v>
@@ -18167,7 +18177,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18178,7 +18188,7 @@
         <v>73</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>75</v>
@@ -18190,17 +18200,17 @@
         <v>75</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>178</v>
+        <v>433</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>694</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>695</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>75</v>
@@ -18225,13 +18235,13 @@
         <v>75</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>697</v>
+        <v>75</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>698</v>
+        <v>75</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>75</v>
@@ -18249,13 +18259,13 @@
         <v>75</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>75</v>
@@ -18275,7 +18285,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18301,16 +18311,14 @@
         <v>178</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>702</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>75</v>
@@ -18338,10 +18346,10 @@
         <v>340</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>75</v>
@@ -18359,7 +18367,7 @@
         <v>75</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>73</v>
@@ -18385,15 +18393,15 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>707</v>
+        <v>75</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F143" t="s" s="2">
         <v>83</v>
@@ -18411,16 +18419,16 @@
         <v>178</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>75</v>
@@ -18448,10 +18456,10 @@
         <v>340</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>75</v>
@@ -18469,10 +18477,10 @@
         <v>75</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>83</v>
@@ -18495,18 +18503,18 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>75</v>
+        <v>710</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>75</v>
@@ -18521,16 +18529,16 @@
         <v>178</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>75</v>
@@ -18558,10 +18566,10 @@
         <v>340</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>75</v>
@@ -18579,13 +18587,13 @@
         <v>75</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>75</v>
@@ -18605,7 +18613,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18631,16 +18639,16 @@
         <v>178</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>75</v>
@@ -18668,10 +18676,10 @@
         <v>340</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>75</v>
@@ -18689,7 +18697,7 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>73</v>
@@ -18715,7 +18723,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18726,7 +18734,7 @@
         <v>73</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>75</v>
@@ -18738,17 +18746,19 @@
         <v>75</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>487</v>
+        <v>178</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="M146" s="2"/>
+        <v>726</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>727</v>
+      </c>
       <c r="N146" t="s" s="2">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>75</v>
@@ -18773,13 +18783,13 @@
         <v>75</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>75</v>
+        <v>729</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>75</v>
+        <v>730</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>75</v>
@@ -18797,13 +18807,13 @@
         <v>75</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>75</v>
@@ -18815,7 +18825,7 @@
         <v>75</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>75</v>
@@ -18823,7 +18833,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18846,17 +18856,17 @@
         <v>75</v>
       </c>
       <c r="J147" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>735</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>75</v>
@@ -18881,13 +18891,13 @@
         <v>75</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>737</v>
+        <v>75</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>738</v>
+        <v>75</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>75</v>
@@ -18905,7 +18915,7 @@
         <v>75</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>73</v>
@@ -18923,7 +18933,7 @@
         <v>75</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>424</v>
+        <v>309</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>75</v>
@@ -18931,7 +18941,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18954,17 +18964,17 @@
         <v>75</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" t="s" s="2">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>75</v>
@@ -18989,13 +18999,13 @@
         <v>75</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>75</v>
+        <v>740</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>75</v>
+        <v>741</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>75</v>
@@ -19013,7 +19023,7 @@
         <v>75</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>73</v>
@@ -19031,7 +19041,7 @@
         <v>75</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>75</v>
+        <v>424</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>75</v>
@@ -19039,7 +19049,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19062,16 +19072,18 @@
         <v>75</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>85</v>
+        <v>743</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>164</v>
+        <v>744</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>165</v>
+        <v>745</v>
       </c>
       <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
+      <c r="N149" t="s" s="2">
+        <v>746</v>
+      </c>
       <c r="O149" t="s" s="2">
         <v>75</v>
       </c>
@@ -19119,7 +19131,7 @@
         <v>75</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>166</v>
+        <v>742</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>73</v>
@@ -19131,7 +19143,7 @@
         <v>75</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>75</v>
@@ -19140,23 +19152,23 @@
         <v>75</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>75</v>
@@ -19168,17 +19180,15 @@
         <v>75</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M150" s="2"/>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
         <v>75</v>
@@ -19215,31 +19225,31 @@
         <v>75</v>
       </c>
       <c r="AA150" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AB150" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AC150" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD150" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>75</v>
@@ -19253,20 +19263,18 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>746</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>75</v>
@@ -19278,15 +19286,17 @@
         <v>75</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>747</v>
+        <v>129</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>748</v>
+        <v>222</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="M151" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
         <v>75</v>
@@ -19323,16 +19333,16 @@
         <v>75</v>
       </c>
       <c r="AA151" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AB151" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AC151" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD151" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AE151" t="s" s="2">
         <v>170</v>
@@ -19356,14 +19366,16 @@
         <v>75</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="B152" t="s" s="2">
         <v>749</v>
       </c>
-      <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
         <v>75</v>
       </c>
@@ -19381,7 +19393,7 @@
         <v>75</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J152" t="s" s="2">
         <v>750</v>
@@ -19390,14 +19402,10 @@
         <v>751</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>754</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>75</v>
       </c>
@@ -19445,19 +19453,19 @@
         <v>75</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>755</v>
+        <v>170</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>75</v>
@@ -19466,12 +19474,12 @@
         <v>75</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>756</v>
+        <v>97</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19482,80 +19490,80 @@
         <v>73</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>105</v>
+        <v>753</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="O153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P153" s="2"/>
+      <c r="Q153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE153" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>759</v>
-      </c>
-      <c r="M153" s="2"/>
-      <c r="N153" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P153" t="s" s="2">
-        <v>761</v>
-      </c>
-      <c r="Q153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W153" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="X153" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="Y153" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>764</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>73</v>
@@ -19576,12 +19584,12 @@
         <v>75</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19592,34 +19600,36 @@
         <v>73</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" t="s" s="2">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="P154" s="2"/>
+      <c r="P154" t="s" s="2">
+        <v>764</v>
+      </c>
       <c r="Q154" t="s" s="2">
         <v>75</v>
       </c>
@@ -19639,13 +19649,13 @@
         <v>75</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>75</v>
+        <v>765</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>75</v>
+        <v>766</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>75</v>
@@ -19663,7 +19673,7 @@
         <v>75</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>73</v>
@@ -19684,12 +19694,12 @@
         <v>75</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19712,17 +19722,17 @@
         <v>84</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>75</v>
@@ -19771,7 +19781,7 @@
         <v>75</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>73</v>
@@ -19780,7 +19790,7 @@
         <v>83</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>777</v>
+        <v>75</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>96</v>
@@ -19792,12 +19802,12 @@
         <v>75</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19820,19 +19830,17 @@
         <v>84</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>782</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>75</v>
@@ -19881,7 +19889,7 @@
         <v>75</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>73</v>
@@ -19890,7 +19898,7 @@
         <v>83</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>75</v>
+        <v>780</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>96</v>
@@ -19902,12 +19910,12 @@
         <v>75</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19927,20 +19935,22 @@
         <v>75</v>
       </c>
       <c r="I157" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>787</v>
+        <v>105</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="M157" s="2"/>
+        <v>784</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>785</v>
+      </c>
       <c r="N157" t="s" s="2">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>75</v>
@@ -19989,7 +19999,7 @@
         <v>75</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>73</v>
@@ -20010,12 +20020,12 @@
         <v>75</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>75</v>
+        <v>788</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20038,19 +20048,17 @@
         <v>75</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" s="2"/>
+      <c r="N158" t="s" s="2">
         <v>793</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>75</v>
@@ -20099,7 +20107,7 @@
         <v>75</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>73</v>
@@ -20125,7 +20133,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20148,19 +20156,19 @@
         <v>75</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>787</v>
+        <v>753</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>797</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="N159" t="s" s="2">
         <v>798</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>800</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>75</v>
@@ -20209,7 +20217,7 @@
         <v>75</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>73</v>
@@ -20235,7 +20243,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20246,7 +20254,7 @@
         <v>73</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>75</v>
@@ -20258,17 +20266,19 @@
         <v>75</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>577</v>
+        <v>790</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>578</v>
+        <v>800</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M160" s="2"/>
+        <v>801</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>802</v>
+      </c>
       <c r="N160" t="s" s="2">
-        <v>580</v>
+        <v>803</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>75</v>
@@ -20317,13 +20327,13 @@
         <v>75</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>75</v>
@@ -20343,7 +20353,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20354,7 +20364,7 @@
         <v>73</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>75</v>
@@ -20366,19 +20376,17 @@
         <v>75</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>178</v>
+        <v>577</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>803</v>
+        <v>578</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>804</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>805</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>806</v>
+        <v>580</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>75</v>
@@ -20403,13 +20411,13 @@
         <v>75</v>
       </c>
       <c r="W161" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>807</v>
+        <v>75</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>808</v>
+        <v>75</v>
       </c>
       <c r="Z161" t="s" s="2">
         <v>75</v>
@@ -20427,13 +20435,13 @@
         <v>75</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>75</v>
@@ -20453,7 +20461,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20464,7 +20472,7 @@
         <v>73</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>75</v>
@@ -20479,14 +20487,16 @@
         <v>178</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="M162" s="2"/>
+        <v>807</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>808</v>
+      </c>
       <c r="N162" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>75</v>
@@ -20514,10 +20524,10 @@
         <v>340</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>75</v>
@@ -20535,13 +20545,13 @@
         <v>75</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>75</v>
@@ -20561,7 +20571,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20584,19 +20594,17 @@
         <v>75</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>815</v>
+        <v>178</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>818</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>75</v>
@@ -20621,13 +20629,13 @@
         <v>75</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>75</v>
+        <v>815</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>75</v>
+        <v>816</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>75</v>
@@ -20645,7 +20653,7 @@
         <v>75</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>73</v>
@@ -20660,7 +20668,7 @@
         <v>96</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>820</v>
+        <v>75</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>75</v>
@@ -20671,7 +20679,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20694,17 +20702,19 @@
         <v>75</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>353</v>
+        <v>818</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>655</v>
+        <v>819</v>
       </c>
       <c r="L164" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="N164" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="M164" s="2"/>
-      <c r="N164" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>75</v>
@@ -20753,7 +20763,7 @@
         <v>75</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>73</v>
@@ -20768,7 +20778,7 @@
         <v>96</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>75</v>
+        <v>823</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>75</v>
@@ -20779,7 +20789,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20790,7 +20800,7 @@
         <v>73</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>75</v>
@@ -20802,16 +20812,18 @@
         <v>75</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>164</v>
+        <v>658</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>165</v>
+        <v>825</v>
       </c>
       <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
+      <c r="N165" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="O165" t="s" s="2">
         <v>75</v>
       </c>
@@ -20859,19 +20871,19 @@
         <v>75</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>166</v>
+        <v>824</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>75</v>
@@ -20880,23 +20892,23 @@
         <v>75</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>75</v>
@@ -20908,17 +20920,15 @@
         <v>75</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M166" s="2"/>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
         <v>75</v>
@@ -20967,19 +20977,19 @@
         <v>75</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>75</v>
@@ -20993,11 +21003,11 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
-        <v>361</v>
+        <v>206</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -21010,26 +21020,24 @@
         <v>75</v>
       </c>
       <c r="H167" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J167" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>362</v>
+        <v>222</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>363</v>
+        <v>223</v>
       </c>
       <c r="M167" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="N167" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
         <v>75</v>
       </c>
@@ -21077,7 +21085,7 @@
         <v>75</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>364</v>
+        <v>170</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>73</v>
@@ -21098,45 +21106,47 @@
         <v>75</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>433</v>
+        <v>129</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>674</v>
+        <v>362</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="M168" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="N168" t="s" s="2">
-        <v>676</v>
+        <v>210</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>75</v>
@@ -21185,19 +21195,19 @@
         <v>75</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>826</v>
+        <v>364</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>75</v>
@@ -21206,12 +21216,12 @@
         <v>75</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21219,7 +21229,7 @@
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F169" t="s" s="2">
         <v>83</v>
@@ -21234,17 +21244,17 @@
         <v>75</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>178</v>
+        <v>433</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>75</v>
@@ -21269,13 +21279,13 @@
         <v>75</v>
       </c>
       <c r="W169" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>697</v>
+        <v>75</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>698</v>
+        <v>75</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>75</v>
@@ -21293,10 +21303,10 @@
         <v>75</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>83</v>
@@ -21319,7 +21329,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21345,16 +21355,14 @@
         <v>178</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>702</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>75</v>
@@ -21382,10 +21390,10 @@
         <v>340</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>75</v>
@@ -21403,7 +21411,7 @@
         <v>75</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>73</v>
@@ -21429,15 +21437,15 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>707</v>
+        <v>75</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F171" t="s" s="2">
         <v>83</v>
@@ -21455,16 +21463,16 @@
         <v>178</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>75</v>
@@ -21492,10 +21500,10 @@
         <v>340</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>75</v>
@@ -21513,10 +21521,10 @@
         <v>75</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>83</v>
@@ -21539,18 +21547,18 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>75</v>
+        <v>710</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>75</v>
@@ -21565,16 +21573,16 @@
         <v>178</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>831</v>
+        <v>711</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>832</v>
+        <v>713</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>75</v>
@@ -21602,10 +21610,10 @@
         <v>340</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>75</v>
@@ -21623,13 +21631,13 @@
         <v>75</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>75</v>
@@ -21675,16 +21683,16 @@
         <v>178</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>722</v>
+        <v>834</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>724</v>
+        <v>835</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>75</v>
@@ -21712,10 +21720,10 @@
         <v>340</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>75</v>
@@ -21759,7 +21767,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21770,7 +21778,7 @@
         <v>73</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>75</v>
@@ -21782,17 +21790,19 @@
         <v>75</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>740</v>
+        <v>178</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="M174" s="2"/>
+        <v>726</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>727</v>
+      </c>
       <c r="N174" t="s" s="2">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>75</v>
@@ -21817,13 +21827,13 @@
         <v>75</v>
       </c>
       <c r="W174" t="s" s="2">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>75</v>
+        <v>729</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>75</v>
+        <v>730</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>75</v>
@@ -21841,13 +21851,13 @@
         <v>75</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>75</v>
@@ -21867,7 +21877,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21890,17 +21900,17 @@
         <v>75</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>787</v>
+        <v>743</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>788</v>
+        <v>744</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>789</v>
+        <v>745</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" t="s" s="2">
-        <v>790</v>
+        <v>746</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>75</v>
@@ -21949,7 +21959,7 @@
         <v>75</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>73</v>
@@ -21975,7 +21985,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21998,19 +22008,17 @@
         <v>75</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="L176" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="L176" t="s" s="2">
+      <c r="M176" s="2"/>
+      <c r="N176" t="s" s="2">
         <v>793</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>75</v>
@@ -22059,7 +22067,7 @@
         <v>75</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>73</v>
@@ -22085,7 +22093,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22108,19 +22116,19 @@
         <v>75</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>787</v>
+        <v>753</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="M177" t="s" s="2">
         <v>797</v>
       </c>
-      <c r="L177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>798</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>800</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>75</v>
@@ -22169,7 +22177,7 @@
         <v>75</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>73</v>
@@ -22195,7 +22203,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22206,7 +22214,7 @@
         <v>73</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>75</v>
@@ -22218,17 +22226,19 @@
         <v>75</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>577</v>
+        <v>790</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>578</v>
+        <v>800</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M178" s="2"/>
+        <v>801</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>802</v>
+      </c>
       <c r="N178" t="s" s="2">
-        <v>580</v>
+        <v>803</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>75</v>
@@ -22277,13 +22287,13 @@
         <v>75</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>75</v>
@@ -22303,7 +22313,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22326,17 +22336,17 @@
         <v>75</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>353</v>
+        <v>577</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>822</v>
+        <v>579</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>657</v>
+        <v>580</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>75</v>
@@ -22385,7 +22395,7 @@
         <v>75</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>73</v>
@@ -22411,7 +22421,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22422,7 +22432,7 @@
         <v>73</v>
       </c>
       <c r="F180" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G180" t="s" s="2">
         <v>75</v>
@@ -22434,16 +22444,18 @@
         <v>75</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>164</v>
+        <v>658</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>165</v>
+        <v>825</v>
       </c>
       <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
+      <c r="N180" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="O180" t="s" s="2">
         <v>75</v>
       </c>
@@ -22491,19 +22503,19 @@
         <v>75</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>166</v>
+        <v>842</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>75</v>
@@ -22512,23 +22524,23 @@
         <v>75</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>75</v>
@@ -22540,17 +22552,15 @@
         <v>75</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M181" s="2"/>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
         <v>75</v>
@@ -22599,19 +22609,19 @@
         <v>75</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>75</v>
@@ -22625,11 +22635,11 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
-        <v>361</v>
+        <v>206</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -22642,26 +22652,24 @@
         <v>75</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I182" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J182" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>362</v>
+        <v>222</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>363</v>
+        <v>223</v>
       </c>
       <c r="M182" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="N182" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
         <v>75</v>
       </c>
@@ -22709,7 +22717,7 @@
         <v>75</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>364</v>
+        <v>170</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>73</v>
@@ -22730,45 +22738,47 @@
         <v>75</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F183" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>433</v>
+        <v>129</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>674</v>
+        <v>362</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="M183" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="N183" t="s" s="2">
-        <v>676</v>
+        <v>210</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>75</v>
@@ -22817,19 +22827,19 @@
         <v>75</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>843</v>
+        <v>364</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>75</v>
@@ -22838,12 +22848,12 @@
         <v>75</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22851,7 +22861,7 @@
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F184" t="s" s="2">
         <v>83</v>
@@ -22866,17 +22876,17 @@
         <v>75</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>178</v>
+        <v>433</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>75</v>
@@ -22901,13 +22911,13 @@
         <v>75</v>
       </c>
       <c r="W184" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>697</v>
+        <v>75</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>698</v>
+        <v>75</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>75</v>
@@ -22925,10 +22935,10 @@
         <v>75</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>83</v>
@@ -22951,7 +22961,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -22977,16 +22987,14 @@
         <v>178</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>702</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>75</v>
@@ -23014,10 +23022,10 @@
         <v>340</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="Z185" t="s" s="2">
         <v>75</v>
@@ -23035,7 +23043,7 @@
         <v>75</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>73</v>
@@ -23061,7 +23069,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23069,7 +23077,7 @@
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F186" t="s" s="2">
         <v>83</v>
@@ -23087,16 +23095,16 @@
         <v>178</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>75</v>
@@ -23124,10 +23132,10 @@
         <v>340</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>75</v>
@@ -23145,10 +23153,10 @@
         <v>75</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>83</v>
@@ -23171,7 +23179,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23179,10 +23187,10 @@
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F187" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>75</v>
@@ -23197,16 +23205,16 @@
         <v>178</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>831</v>
+        <v>711</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>832</v>
+        <v>713</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>75</v>
@@ -23234,10 +23242,10 @@
         <v>340</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>75</v>
@@ -23255,13 +23263,13 @@
         <v>75</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>75</v>
@@ -23281,7 +23289,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23307,16 +23315,16 @@
         <v>178</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>722</v>
+        <v>834</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>724</v>
+        <v>835</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>75</v>
@@ -23344,10 +23352,10 @@
         <v>340</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>75</v>
@@ -23365,7 +23373,7 @@
         <v>75</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>73</v>
@@ -23391,7 +23399,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23402,7 +23410,7 @@
         <v>73</v>
       </c>
       <c r="F189" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G189" t="s" s="2">
         <v>75</v>
@@ -23414,17 +23422,19 @@
         <v>75</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>740</v>
+        <v>178</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="M189" s="2"/>
+        <v>726</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>727</v>
+      </c>
       <c r="N189" t="s" s="2">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>75</v>
@@ -23449,13 +23459,13 @@
         <v>75</v>
       </c>
       <c r="W189" t="s" s="2">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>75</v>
+        <v>729</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>75</v>
+        <v>730</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>75</v>
@@ -23473,13 +23483,13 @@
         <v>75</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>75</v>
@@ -23499,7 +23509,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23522,17 +23532,17 @@
         <v>75</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>787</v>
+        <v>743</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>788</v>
+        <v>744</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>789</v>
+        <v>745</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>790</v>
+        <v>746</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>75</v>
@@ -23581,7 +23591,7 @@
         <v>75</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>73</v>
@@ -23607,7 +23617,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -23630,19 +23640,17 @@
         <v>75</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="L191" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="L191" t="s" s="2">
+      <c r="M191" s="2"/>
+      <c r="N191" t="s" s="2">
         <v>793</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>75</v>
@@ -23691,7 +23699,7 @@
         <v>75</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>73</v>
@@ -23717,7 +23725,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -23740,19 +23748,19 @@
         <v>75</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>787</v>
+        <v>753</v>
       </c>
       <c r="K192" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="M192" t="s" s="2">
         <v>797</v>
       </c>
-      <c r="L192" t="s" s="2">
+      <c r="N192" t="s" s="2">
         <v>798</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>800</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>75</v>
@@ -23801,7 +23809,7 @@
         <v>75</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>73</v>
@@ -23827,7 +23835,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -23838,7 +23846,7 @@
         <v>73</v>
       </c>
       <c r="F193" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>75</v>
@@ -23850,17 +23858,19 @@
         <v>75</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>577</v>
+        <v>790</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>578</v>
+        <v>800</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M193" s="2"/>
+        <v>801</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>802</v>
+      </c>
       <c r="N193" t="s" s="2">
-        <v>580</v>
+        <v>803</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>75</v>
@@ -23909,13 +23919,13 @@
         <v>75</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>75</v>
@@ -23935,7 +23945,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23946,7 +23956,7 @@
         <v>73</v>
       </c>
       <c r="F194" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G194" t="s" s="2">
         <v>75</v>
@@ -23958,17 +23968,17 @@
         <v>75</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>787</v>
+        <v>577</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>855</v>
+        <v>578</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>856</v>
+        <v>579</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>857</v>
+        <v>580</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>75</v>
@@ -24017,13 +24027,13 @@
         <v>75</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>75</v>
@@ -24038,6 +24048,114 @@
         <v>75</v>
       </c>
       <c r="AL194" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="B195" s="2"/>
+      <c r="C195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F195" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="M195" s="2"/>
+      <c r="N195" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="O195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P195" s="2"/>
+      <c r="Q195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE195" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="AF195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG195" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI195" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL195" t="s" s="2">
         <v>75</v>
       </c>
     </row>
